--- a/biology/Zoologie/Chironius_scurrulus/Chironius_scurrulus.xlsx
+++ b/biology/Zoologie/Chironius_scurrulus/Chironius_scurrulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chironius scurrulus  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chironius scurrulus  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce se rencontre :
 dans le nord de la Bolivie ;
@@ -523,7 +537,7 @@
 dans l'est du Pérou ;
 au Surinam ;
 à Trinité-et-Tobago ;
-au Venezuela, dans les États d'Amazonas et Bolívar[1].</t>
+au Venezuela, dans les États d'Amazonas et Bolívar.</t>
         </is>
       </c>
     </row>
@@ -551,9 +565,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description Wagler lui donne le nom vernaculaire de « Couleuvre Arlequin » en précisant que « C'est nommée d'après le coloris semblable au vetiment d'un arlequin, vu que l'une des écailles du tronc supérieur est d'un brun rougeâtre, l'autre noirâtre ou violette, etc.[2]. ». Il indique avoir trouvé ce serpent dans les lieux marécageux du rio Japurá.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Wagler lui donne le nom vernaculaire de « Couleuvre Arlequin » en précisant que « C'est nommée d'après le coloris semblable au vetiment d'un arlequin, vu que l'une des écailles du tronc supérieur est d'un brun rougeâtre, l'autre noirâtre ou violette, etc.. ». Il indique avoir trouvé ce serpent dans les lieux marécageux du rio Japurá.
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wagler, 1824 : Serpentum Brasiliensium species novae, ou histoire naturelle des espèces nouvelles de serpens. in Jean de Spix, Animalia nova sive species novae, p. 1-75 (texte intégral).
 Duméril, Bibron &amp; Duméril, 1854 : Erpétologie générale ou histoire naturelle complète des reptiles. Tome septième. Première partie, p. 1-780 (texte intégral).</t>
